--- a/result_table_templates/Transporter_AUC.xlsx
+++ b/result_table_templates/Transporter_AUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\MATLAB\DJ_schwartzlab\result_table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F224120E-1DE5-4611-A179-81E75E9DA100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F57D89A-D30F-40D0-9B9D-7332AB84F222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>inj_current</t>
   </si>
   <si>
-    <t>mean_traces</t>
-  </si>
-  <si>
     <t>n_epochs_per_current</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>stim_time_ms</t>
   </si>
   <si>
-    <t>vrest</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>double</t>
   </si>
   <si>
-    <t>cell</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -88,15 +79,9 @@
     <t>source id used to identify the cell to which the dataset belongs</t>
   </si>
   <si>
-    <t>waveforms of example traces (mV)</t>
-  </si>
-  <si>
     <t>vector of current injection amplitudes (pA)</t>
   </si>
   <si>
-    <t>waveforms of mean traces (mV)</t>
-  </si>
-  <si>
     <t>vector with how many trials for each injection size</t>
   </si>
   <si>
@@ -109,80 +94,100 @@
     <t>stim time (ms)</t>
   </si>
   <si>
-    <t>vrest_by_epoch</t>
-  </si>
-  <si>
-    <t>resting potential (mV) for each epoch at each current value</t>
-  </si>
-  <si>
     <t>ahp_amplitude</t>
   </si>
   <si>
     <t xml:space="preserve">amplitude of after-hyperpolarization </t>
   </si>
   <si>
-    <t>ahp_time</t>
-  </si>
-  <si>
-    <t>time of after-hyperpolarization (s)</t>
-  </si>
-  <si>
-    <t>spike_count_mean</t>
-  </si>
-  <si>
-    <t>mean spike count during step for each current injection value</t>
-  </si>
-  <si>
-    <t>spike_count_sem</t>
-  </si>
-  <si>
-    <t>stanrdard error of spike count during step for each current injection value</t>
-  </si>
-  <si>
-    <t>spike_count_all</t>
-  </si>
-  <si>
-    <t>spike count for each epoch at each current value</t>
-  </si>
-  <si>
-    <t>mean resting potential (mV) overall</t>
-  </si>
-  <si>
-    <t>ahp_decay_tau1</t>
-  </si>
-  <si>
-    <t>fast time constant of expotential decay back to baseline (s)</t>
-  </si>
-  <si>
-    <t>ahp_decay_tau2</t>
-  </si>
-  <si>
-    <t>slow time constant of expotential decay back to baseline (s)</t>
-  </si>
-  <si>
-    <t>ahp_tau1_coeff</t>
-  </si>
-  <si>
-    <t>weight of the fast exponent (remainder is the slow one)</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>vrest_mean</t>
-  </si>
-  <si>
-    <t>mean resting potential (mV) for each current injection value</t>
+    <t xml:space="preserve">waveforms of example traces (mV). Usually the first epoch. </t>
+  </si>
+  <si>
+    <t>ahp_areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vector with AHP areas for each epoch. </t>
+  </si>
+  <si>
+    <t>spike_counts</t>
+  </si>
+  <si>
+    <t>vector with spike counts for each epoch</t>
+  </si>
+  <si>
+    <t>auc_sp_ratios</t>
+  </si>
+  <si>
+    <t>vector with ahp_area over spike_count for each epoch</t>
+  </si>
+  <si>
+    <t>stim_end_idx</t>
+  </si>
+  <si>
+    <t>stimuli end index</t>
+  </si>
+  <si>
+    <t>vrest_example</t>
+  </si>
+  <si>
+    <t>vrest of the example trace</t>
+  </si>
+  <si>
+    <t>example_sp</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>Idk. Was drunk when I coded this</t>
+  </si>
+  <si>
+    <t>example_spike_count</t>
+  </si>
+  <si>
+    <t>Vector of spike counts for the example traces</t>
+  </si>
+  <si>
+    <t>example_segment</t>
+  </si>
+  <si>
+    <t>Vector with the voltage of the post stimulation segment</t>
+  </si>
+  <si>
+    <t>example_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector with differences of AHP voltage and vrest. </t>
+  </si>
+  <si>
+    <t>example_ahp</t>
+  </si>
+  <si>
+    <t>ahp area for the example traces</t>
+  </si>
+  <si>
+    <t>stim_end_time</t>
+  </si>
+  <si>
+    <t>stim end time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,8 +210,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="261" zoomScaleNormal="261" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,10 +556,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,10 +567,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,197 +578,197 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,7 +776,7 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -778,6 +784,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result_table_templates/Transporter_AUC.xlsx
+++ b/result_table_templates/Transporter_AUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\MATLAB\DJ_schwartzlab\result_table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F57D89A-D30F-40D0-9B9D-7332AB84F222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BBBCF3-7A02-46A2-8E8A-CB3E586B39DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
